--- a/test/report.xlsx
+++ b/test/report.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>&lt;%=_data_[0][0].table_name%&gt;</t>
   </si>
@@ -25,9 +25,6 @@
   </si>
   <si>
     <t>&lt;%=_data_[0][0].date%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%forRBegin rs1,i in _data_[1]%&gt;</t>
   </si>
   <si>
     <t>1元</t>
@@ -80,6 +77,14 @@
   </si>
   <si>
     <t>&lt;%forREnd(8)%&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%forRBegin rs1,i in _data_[1]%&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个(8)代表forRBegin跟forREnd标签直接有8行 行号11 - 行号3 = 8</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -708,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -768,7 +773,7 @@
     </row>
     <row r="3" spans="1:17" ht="28.5" customHeight="1">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
@@ -782,35 +787,35 @@
     <row r="4" spans="1:17" ht="21" customHeight="1">
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="F4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="G4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="H4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="I4" s="13" t="s">
         <v>8</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="21" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="21"/>
       <c r="C5" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
@@ -822,10 +827,10 @@
       <c r="A6" s="6"/>
       <c r="B6" s="22"/>
       <c r="C6" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="23"/>
@@ -837,7 +842,7 @@
       <c r="A7" s="6"/>
       <c r="B7" s="9"/>
       <c r="C7" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
@@ -850,7 +855,7 @@
       <c r="A8" s="6"/>
       <c r="B8" s="21"/>
       <c r="C8" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
@@ -863,10 +868,10 @@
       <c r="A9" s="6"/>
       <c r="B9" s="22"/>
       <c r="C9" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
@@ -878,10 +883,10 @@
       <c r="A10" s="6"/>
       <c r="B10" s="9"/>
       <c r="C10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>14</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>15</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
@@ -891,9 +896,14 @@
     </row>
     <row r="11" spans="1:17" ht="18.95" customHeight="1">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" s="17"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/test/report.xlsx
+++ b/test/report.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>&lt;%=_data_[0][0].table_name%&gt;</t>
   </si>
@@ -76,15 +76,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;%forREnd(8)%&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;%forRBegin rs1,i in _data_[1]%&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>这个(8)代表forRBegin跟forREnd标签直接有8行 行号11 - 行号3 = 8</t>
+  </si>
+  <si>
+    <t>&lt;%forREnd%&gt;</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -713,10 +708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -773,7 +768,7 @@
     </row>
     <row r="3" spans="1:17" ht="28.5" customHeight="1">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
@@ -896,14 +891,9 @@
     </row>
     <row r="11" spans="1:17" ht="18.95" customHeight="1">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D11" s="17"/>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/test/report.xlsx
+++ b/test/report.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="8835"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -68,10 +68,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>入钞箱（配置）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>面值</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -80,6 +76,10 @@
   </si>
   <si>
     <t>&lt;%forREnd%&gt;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>入钞箱（配置）</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -87,7 +87,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color indexed="63"/>
@@ -123,6 +123,14 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -281,12 +289,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -368,9 +380,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -711,7 +727,7 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -768,7 +784,7 @@
     </row>
     <row r="3" spans="1:17" ht="28.5" customHeight="1">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
@@ -782,7 +798,7 @@
     <row r="4" spans="1:17" ht="21" customHeight="1">
       <c r="B4" s="7"/>
       <c r="C4" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>3</v>
@@ -806,8 +822,8 @@
     <row r="5" spans="1:17" ht="21" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="21"/>
-      <c r="C5" s="10" t="s">
-        <v>16</v>
+      <c r="C5" s="27" t="s">
+        <v>19</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>15</v>
@@ -891,7 +907,7 @@
     </row>
     <row r="11" spans="1:17" ht="18.95" customHeight="1">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" s="17"/>
     </row>
@@ -903,6 +919,9 @@
     <mergeCell ref="B8:B9"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C5" location="Sheet2!A1" display="入钞箱（配置）"/>
+  </hyperlinks>
   <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
@@ -934,7 +953,7 @@
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>